--- a/ExtractSREO/Standardized-2021 12 14_MWest_Debt Schedule.xlsx
+++ b/ExtractSREO/Standardized-2021 12 14_MWest_Debt Schedule.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -551,11 +551,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2104 Cahuenga LLC</t>
-        </is>
-      </c>
+      <c r="A2" t="inlineStr"/>
       <c r="B2" t="inlineStr">
         <is>
           <t>2104 Cahuenga Blvd., Los Angeles, CA 90068</t>
@@ -564,10 +560,14 @@
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CA </t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr"/>
+          <t>2104 Cahuenga LLC</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>3.88%</t>
+        </is>
+      </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
@@ -582,32 +582,16 @@
           <t>12/1/2022</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>3,368,000</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>820104461</t>
-        </is>
-      </c>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
       <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Fixed </t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>3.88%</t>
-        </is>
-      </c>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr"/>
     </row>
@@ -616,7 +600,11 @@
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>4.84%</t>
+        </is>
+      </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
@@ -631,41 +619,21 @@
           <t>12/1/2022</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>1,733,000</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>8201100772</t>
-        </is>
-      </c>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Fixed </t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>4.84%</t>
-        </is>
-      </c>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>South Park Lofts</t>
-        </is>
-      </c>
+      <c r="A4" t="inlineStr"/>
       <c r="B4" t="inlineStr">
         <is>
           <t>818 South Grand Avenue, Los Angeles, CA 90017</t>
@@ -674,10 +642,14 @@
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CA </t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
+          <t>South Park Lofts</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>4.34%</t>
+        </is>
+      </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
@@ -692,32 +664,16 @@
           <t>5/1/2023</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>11,653,000</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>820104869</t>
-        </is>
-      </c>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr"/>
       <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Fixed </t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>4.34%</t>
-        </is>
-      </c>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr"/>
     </row>
@@ -726,7 +682,11 @@
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>5.21%</t>
+        </is>
+      </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
@@ -741,41 +701,21 @@
           <t>5/1/2023</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>3,740,000</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>820118186</t>
-        </is>
-      </c>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr"/>
       <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Fixed </t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>5.21%</t>
-        </is>
-      </c>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Delta Paciific LLC</t>
-        </is>
-      </c>
+      <c r="A6" t="inlineStr"/>
       <c r="B6" t="inlineStr">
         <is>
           <t>1616 Delta Street, Los Angeles, CA 90026</t>
@@ -784,10 +724,14 @@
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CA </t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr"/>
+          <t>Delta Paciific LLC</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2.99%</t>
+        </is>
+      </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
@@ -802,37 +746,17 @@
           <t>1/1/2045</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>2,375,000</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>100522173</t>
-        </is>
-      </c>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr"/>
       <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 5 yrs Fixed-12/31/2019 </t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>2.99%</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>2.25%</t>
-        </is>
-      </c>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr">
         <is>
           <t>6 month LIBOR</t>
@@ -840,11 +764,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Echo Park </t>
-        </is>
-      </c>
+      <c r="A7" t="inlineStr"/>
       <c r="B7" t="inlineStr">
         <is>
           <t>1541-1559 Echo Park Avenue, Los Angeles, CA 90026</t>
@@ -853,10 +773,14 @@
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CA </t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr"/>
+          <t xml:space="preserve">Echo Park </t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>4.65%</t>
+        </is>
+      </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
@@ -871,41 +795,21 @@
           <t>3/1/2026</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>7,976,000</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>82-0109598</t>
-        </is>
-      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr"/>
       <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Fixed </t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>4.65%</t>
-        </is>
-      </c>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Enclave Apartment</t>
-        </is>
-      </c>
+      <c r="A8" t="inlineStr"/>
       <c r="B8" t="inlineStr">
         <is>
           <t>13801 Paramount Blvd., Paramount, CA</t>
@@ -914,10 +818,14 @@
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CA </t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr"/>
+          <t>Enclave Apartment</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>3.85%</t>
+        </is>
+      </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
@@ -932,37 +840,17 @@
           <t>12/16/2023</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>76,325,000</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>330174455</t>
-        </is>
-      </c>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="inlineStr"/>
       <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Variable  </t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>3.85%</t>
-        </is>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>2.10%</t>
-        </is>
-      </c>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr">
         <is>
           <t>LIBOR</t>
@@ -970,11 +858,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4629 Fulton LLC</t>
-        </is>
-      </c>
+      <c r="A9" t="inlineStr"/>
       <c r="B9" t="inlineStr">
         <is>
           <t>4629 Fulton Avenue, Sherman Oaks, CA 91423</t>
@@ -983,10 +867,14 @@
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CA </t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr"/>
+          <t>4629 Fulton LLC</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>3.09%</t>
+        </is>
+      </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
@@ -1001,41 +889,21 @@
           <t>5/1/2030</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>10,151,000</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>820118856</t>
-        </is>
-      </c>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
       <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Fixed </t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>3.09%</t>
-        </is>
-      </c>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Harbor Terrace Pacific Owner LLC</t>
-        </is>
-      </c>
+      <c r="A10" t="inlineStr"/>
       <c r="B10" t="inlineStr">
         <is>
           <t>441 West 3rd Street, San Pedro, CA 90731</t>
@@ -1044,10 +912,14 @@
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CA </t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr"/>
+          <t>Harbor Terrace Pacific Owner LLC</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>5.40%</t>
+        </is>
+      </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
@@ -1062,37 +934,17 @@
           <t>7/9/2022</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>15,840,000</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>112100408</t>
-        </is>
-      </c>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr"/>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Variable  </t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>5.40%</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>3.15%</t>
-        </is>
-      </c>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
       <c r="W10" t="inlineStr">
         <is>
           <t>1 month LIBOR</t>
@@ -1100,11 +952,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Hollywood Tower Pacific LLC</t>
-        </is>
-      </c>
+      <c r="A11" t="inlineStr"/>
       <c r="B11" t="inlineStr">
         <is>
           <t>6200 Franklin Ave., Los Angeles, CA 90028</t>
@@ -1113,10 +961,14 @@
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CA </t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr"/>
+          <t>Hollywood Tower Pacific LLC</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>3.67%</t>
+        </is>
+      </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
@@ -1131,37 +983,17 @@
           <t>7/1/2030</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>11,430,000</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>100536577</t>
-        </is>
-      </c>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="inlineStr"/>
       <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 10 yrs Fixed-07/01/2025 </t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>3.67%</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>2.25%</t>
-        </is>
-      </c>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr">
         <is>
           <t>6 month LIBOR</t>
@@ -1169,11 +1001,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Kingsley</t>
-        </is>
-      </c>
+      <c r="A12" t="inlineStr"/>
       <c r="B12" t="inlineStr">
         <is>
           <t>1825 N. Kingsley Drive, Los Angeles, CA 90027</t>
@@ -1182,10 +1010,14 @@
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CA </t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr"/>
+          <t>Kingsley</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>4.23%</t>
+        </is>
+      </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
@@ -1200,41 +1032,21 @@
           <t>5/1/2026</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>4,649,000</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>820110870</t>
-        </is>
-      </c>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr"/>
       <c r="S12" t="inlineStr"/>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Fixed </t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>4.23%</t>
-        </is>
-      </c>
+      <c r="T12" t="inlineStr"/>
+      <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr"/>
       <c r="W12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Larkspur</t>
-        </is>
-      </c>
+      <c r="A13" t="inlineStr"/>
       <c r="B13" t="inlineStr">
         <is>
           <t>19500 Hidden Springs Road, West Linn, OR 97068</t>
@@ -1243,10 +1055,14 @@
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> OR </t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr"/>
+          <t>Larkspur</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>3.51%</t>
+        </is>
+      </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
@@ -1261,11 +1077,7 @@
           <t>7/1/2031</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>820120913</t>
-        </is>
-      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
@@ -1273,25 +1085,13 @@
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr"/>
       <c r="S13" t="inlineStr"/>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Fixed </t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>3.51%</t>
-        </is>
-      </c>
+      <c r="T13" t="inlineStr"/>
+      <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr"/>
       <c r="W13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Milano</t>
-        </is>
-      </c>
+      <c r="A14" t="inlineStr"/>
       <c r="B14" t="inlineStr">
         <is>
           <t>20900 Anza Avenue, Torrance, CA 90503</t>
@@ -1300,10 +1100,14 @@
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CA </t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr"/>
+          <t>Milano</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>4.89%</t>
+        </is>
+      </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
@@ -1318,32 +1122,16 @@
           <t>2/1/2024</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>37,836,000</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>820106333</t>
-        </is>
-      </c>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="inlineStr"/>
       <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Fixed </t>
-        </is>
-      </c>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>4.89%</t>
-        </is>
-      </c>
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr"/>
       <c r="W14" t="inlineStr"/>
     </row>
@@ -1352,7 +1140,11 @@
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>5.46%</t>
+        </is>
+      </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
@@ -1367,41 +1159,21 @@
           <t>2/1/2024</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>5,600,000</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>820113115</t>
-        </is>
-      </c>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr"/>
       <c r="S15" t="inlineStr"/>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Fixed </t>
-        </is>
-      </c>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>5.46%</t>
-        </is>
-      </c>
+      <c r="T15" t="inlineStr"/>
+      <c r="U15" t="inlineStr"/>
       <c r="V15" t="inlineStr"/>
       <c r="W15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>NoHo Lofts</t>
-        </is>
-      </c>
+      <c r="A16" t="inlineStr"/>
       <c r="B16" t="inlineStr">
         <is>
           <t>11136 Chandler Blvd., North Hollywood, CA 91601</t>
@@ -1410,18 +1182,18 @@
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CA </t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr"/>
+          <t>NoHo Lofts</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>3.93%</t>
+        </is>
+      </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>9/9/2019</t>
-        </is>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
           <t xml:space="preserve"> Invesco CMI Investments, L.P. </t>
@@ -1432,37 +1204,17 @@
           <t>9/9/2021</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>73,861,550</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>10205952</t>
-        </is>
-      </c>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr"/>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Variable  </t>
-        </is>
-      </c>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t>3.93%</t>
-        </is>
-      </c>
-      <c r="V16" t="inlineStr">
-        <is>
-          <t>2.18%</t>
-        </is>
-      </c>
+      <c r="T16" t="inlineStr"/>
+      <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr"/>
       <c r="W16" t="inlineStr">
         <is>
           <t>LIBOR</t>
@@ -1470,11 +1222,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>NoVa</t>
-        </is>
-      </c>
+      <c r="A17" t="inlineStr"/>
       <c r="B17" t="inlineStr">
         <is>
           <t>8761 De Soto Ave., Canoga Park , CA 91304</t>
@@ -1483,10 +1231,14 @@
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CA </t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr"/>
+          <t>NoVa</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>4.49%</t>
+        </is>
+      </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
@@ -1501,32 +1253,16 @@
           <t>6/1/2048</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>6,964,000</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>372009931</t>
-        </is>
-      </c>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr"/>
       <c r="S17" t="inlineStr"/>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 7 yrs Fixed </t>
-        </is>
-      </c>
-      <c r="U17" t="inlineStr">
-        <is>
-          <t>4.49%</t>
-        </is>
-      </c>
+      <c r="T17" t="inlineStr"/>
+      <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr"/>
       <c r="W17" t="inlineStr">
         <is>
@@ -1535,11 +1271,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Orange Grove Pacific I LLC </t>
-        </is>
-      </c>
+      <c r="A18" t="inlineStr"/>
       <c r="B18" t="inlineStr">
         <is>
           <t>415-600 Orange Grove Circle, Pasadena, CA 91105</t>
@@ -1548,10 +1280,14 @@
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CA </t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr"/>
+          <t xml:space="preserve">Orange Grove Pacific I LLC </t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2.83%</t>
+        </is>
+      </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
@@ -1566,41 +1302,21 @@
           <t>9/1/2030</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>31,756,000</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>820119815</t>
-        </is>
-      </c>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="inlineStr"/>
-      <c r="T18" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Fixed </t>
-        </is>
-      </c>
-      <c r="U18" t="inlineStr">
-        <is>
-          <t>2.83%</t>
-        </is>
-      </c>
+      <c r="T18" t="inlineStr"/>
+      <c r="U18" t="inlineStr"/>
       <c r="V18" t="inlineStr"/>
       <c r="W18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>10725 Rose LLC</t>
-        </is>
-      </c>
+      <c r="A19" t="inlineStr"/>
       <c r="B19" t="inlineStr">
         <is>
           <t>10705 Rose Avenue, Palms, CA 90034</t>
@@ -1609,10 +1325,14 @@
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CA </t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr"/>
+          <t>10725 Rose LLC</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>4.40%</t>
+        </is>
+      </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
@@ -1627,41 +1347,21 @@
           <t>8/1/2028</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>12,735,000</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>820115890</t>
-        </is>
-      </c>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="inlineStr"/>
       <c r="S19" t="inlineStr"/>
-      <c r="T19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Fixed </t>
-        </is>
-      </c>
-      <c r="U19" t="inlineStr">
-        <is>
-          <t>4.40%</t>
-        </is>
-      </c>
+      <c r="T19" t="inlineStr"/>
+      <c r="U19" t="inlineStr"/>
       <c r="V19" t="inlineStr"/>
       <c r="W19" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Wilshire Royale</t>
-        </is>
-      </c>
+      <c r="A20" t="inlineStr"/>
       <c r="B20" t="inlineStr">
         <is>
           <t>2619 Wilshire Blvd., Los Angeles, CA 90057</t>
@@ -1670,10 +1370,14 @@
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CA </t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr"/>
+          <t>Wilshire Royale</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>3.62%</t>
+        </is>
+      </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
@@ -1688,37 +1392,17 @@
           <t>8/1/2045</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>20,000,000</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>100537939</t>
-        </is>
-      </c>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="inlineStr"/>
       <c r="S20" t="inlineStr"/>
-      <c r="T20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 7 yrs Fixed-09/01/2022 </t>
-        </is>
-      </c>
-      <c r="U20" t="inlineStr">
-        <is>
-          <t>3.62%</t>
-        </is>
-      </c>
-      <c r="V20" t="inlineStr">
-        <is>
-          <t>2.25%</t>
-        </is>
-      </c>
+      <c r="T20" t="inlineStr"/>
+      <c r="U20" t="inlineStr"/>
+      <c r="V20" t="inlineStr"/>
       <c r="W20" t="inlineStr">
         <is>
           <t>6 month LIBOR</t>
@@ -1726,11 +1410,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>San Fernando</t>
-        </is>
-      </c>
+      <c r="A21" t="inlineStr"/>
       <c r="B21" t="inlineStr">
         <is>
           <t>400 Main Street, Los Angeles, CA 90013</t>
@@ -1739,10 +1419,14 @@
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CA </t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr"/>
+          <t>San Fernando</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>5.20%</t>
+        </is>
+      </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
@@ -1757,37 +1441,17 @@
           <t>3/9/2022</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>23,329,109</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>112100387</t>
-        </is>
-      </c>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="inlineStr"/>
       <c r="S21" t="inlineStr"/>
-      <c r="T21" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Variable  </t>
-        </is>
-      </c>
-      <c r="U21" t="inlineStr">
-        <is>
-          <t>5.20%</t>
-        </is>
-      </c>
-      <c r="V21" t="inlineStr">
-        <is>
-          <t>3.10%</t>
-        </is>
-      </c>
+      <c r="T21" t="inlineStr"/>
+      <c r="U21" t="inlineStr"/>
+      <c r="V21" t="inlineStr"/>
       <c r="W21" t="inlineStr">
         <is>
           <t>Greater of LIBOR or 2.10%, Max LIBOR 3.5%</t>
@@ -1795,11 +1459,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>San Pedro</t>
-        </is>
-      </c>
+      <c r="A22" t="inlineStr"/>
       <c r="B22" t="inlineStr">
         <is>
           <t>407 West 7th Street, SanPedro, CA 90731</t>
@@ -1808,10 +1468,14 @@
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CA </t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr"/>
+          <t>San Pedro</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>3.34%</t>
+        </is>
+      </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
@@ -1826,41 +1490,21 @@
           <t>5/1/2030</t>
         </is>
       </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>22,767,000</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>820119241</t>
-        </is>
-      </c>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="inlineStr"/>
       <c r="S22" t="inlineStr"/>
-      <c r="T22" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Fixed </t>
-        </is>
-      </c>
-      <c r="U22" t="inlineStr">
-        <is>
-          <t>3.34%</t>
-        </is>
-      </c>
+      <c r="T22" t="inlineStr"/>
+      <c r="U22" t="inlineStr"/>
       <c r="V22" t="inlineStr"/>
       <c r="W22" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>TH Garden Pacific Owner LLC</t>
-        </is>
-      </c>
+      <c r="A23" t="inlineStr"/>
       <c r="B23" t="inlineStr">
         <is>
           <t>4611-4645 Stoner Ave., Los Angeles, CA 90230</t>
@@ -1869,10 +1513,14 @@
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CA </t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr"/>
+          <t>TH Garden Pacific Owner LLC</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>5.40%</t>
+        </is>
+      </c>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
@@ -1887,37 +1535,17 @@
           <t>7/9/2022</t>
         </is>
       </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>12,400,000</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>112100406</t>
-        </is>
-      </c>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="inlineStr"/>
       <c r="S23" t="inlineStr"/>
-      <c r="T23" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Variable  </t>
-        </is>
-      </c>
-      <c r="U23" t="inlineStr">
-        <is>
-          <t>5.40%</t>
-        </is>
-      </c>
-      <c r="V23" t="inlineStr">
-        <is>
-          <t>3.15%</t>
-        </is>
-      </c>
+      <c r="T23" t="inlineStr"/>
+      <c r="U23" t="inlineStr"/>
+      <c r="V23" t="inlineStr"/>
       <c r="W23" t="inlineStr">
         <is>
           <t>1 month LIBOR</t>
@@ -1925,11 +1553,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Santa Fe</t>
-        </is>
-      </c>
+      <c r="A24" t="inlineStr"/>
       <c r="B24" t="inlineStr">
         <is>
           <t>121 E 6th St., Los Angeles, CA 90014</t>
@@ -1938,10 +1562,14 @@
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CA </t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr"/>
+          <t>Santa Fe</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>4.25%</t>
+        </is>
+      </c>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
@@ -1956,37 +1584,17 @@
           <t>6/6/2023</t>
         </is>
       </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>38,500,000</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>10189101</t>
-        </is>
-      </c>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr"/>
-      <c r="T24" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Variable  </t>
-        </is>
-      </c>
-      <c r="U24" t="inlineStr">
-        <is>
-          <t>4.25%</t>
-        </is>
-      </c>
-      <c r="V24" t="inlineStr">
-        <is>
-          <t>4.00%</t>
-        </is>
-      </c>
+      <c r="T24" t="inlineStr"/>
+      <c r="U24" t="inlineStr"/>
+      <c r="V24" t="inlineStr"/>
       <c r="W24" t="inlineStr">
         <is>
           <t>1 month LIBOR</t>
@@ -1994,11 +1602,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>13949 LLC - Ventura</t>
-        </is>
-      </c>
+      <c r="A25" t="inlineStr"/>
       <c r="B25" t="inlineStr">
         <is>
           <t>13949 Ventura Blvd., Sherman Oaks, CA 91423</t>
@@ -2007,10 +1611,14 @@
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CA </t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr"/>
+          <t>13949 LLC - Ventura</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>3.40%</t>
+        </is>
+      </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
@@ -2025,41 +1633,21 @@
           <t>5/11/2031</t>
         </is>
       </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>11,250,000</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>31-0955268</t>
-        </is>
-      </c>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr"/>
       <c r="S25" t="inlineStr"/>
-      <c r="T25" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Fixed </t>
-        </is>
-      </c>
-      <c r="U25" t="inlineStr">
-        <is>
-          <t>3.40%</t>
-        </is>
-      </c>
+      <c r="T25" t="inlineStr"/>
+      <c r="U25" t="inlineStr"/>
       <c r="V25" t="inlineStr"/>
       <c r="W25" t="inlineStr"/>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>The View</t>
-        </is>
-      </c>
+      <c r="A26" t="inlineStr"/>
       <c r="B26" t="inlineStr">
         <is>
           <t>3460 W. 7th Street, Los Angeles, CA 90005</t>
@@ -2068,10 +1656,14 @@
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> CA </t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr"/>
+          <t>The View</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>4.00%</t>
+        </is>
+      </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
@@ -2086,37 +1678,17 @@
           <t>1/1/2024</t>
         </is>
       </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>46,600,000</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>758265</t>
-        </is>
-      </c>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="inlineStr"/>
       <c r="S26" t="inlineStr"/>
-      <c r="T26" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Variable  </t>
-        </is>
-      </c>
-      <c r="U26" t="inlineStr">
-        <is>
-          <t>4.00%</t>
-        </is>
-      </c>
-      <c r="V26" t="inlineStr">
-        <is>
-          <t>1.90%</t>
-        </is>
-      </c>
+      <c r="T26" t="inlineStr"/>
+      <c r="U26" t="inlineStr"/>
+      <c r="V26" t="inlineStr"/>
       <c r="W26" t="inlineStr">
         <is>
           <t>LIBOR</t>
@@ -2124,11 +1696,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>251 E 52nd Associates LP</t>
-        </is>
-      </c>
+      <c r="A27" t="inlineStr"/>
       <c r="B27" t="inlineStr">
         <is>
           <t>251 East 52nd Street, New York, NY 10022</t>
@@ -2137,10 +1705,14 @@
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NY </t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr"/>
+          <t>251 E 52nd Associates LP</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>4.13%</t>
+        </is>
+      </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
@@ -2155,32 +1727,16 @@
           <t>11/10/2029</t>
         </is>
       </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>7,000,000</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>9.40409E+13</t>
-        </is>
-      </c>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr"/>
       <c r="S27" t="inlineStr"/>
-      <c r="T27" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 7 yrs Fixed-11/10/2024 </t>
-        </is>
-      </c>
-      <c r="U27" t="inlineStr">
-        <is>
-          <t>4.13%</t>
-        </is>
-      </c>
+      <c r="T27" t="inlineStr"/>
+      <c r="U27" t="inlineStr"/>
       <c r="V27" t="inlineStr"/>
       <c r="W27" t="inlineStr">
         <is>
@@ -2189,11 +1745,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>37-39 West 8 Associates LP</t>
-        </is>
-      </c>
+      <c r="A28" t="inlineStr"/>
       <c r="B28" t="inlineStr">
         <is>
           <t>37-39 West 8th Street, New York, NY 10011</t>
@@ -2202,10 +1754,14 @@
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NY </t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr"/>
+          <t>37-39 West 8 Associates LP</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>4.13%</t>
+        </is>
+      </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
@@ -2220,32 +1776,16 @@
           <t>11/10/2029</t>
         </is>
       </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>8,400,000</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>9.40412E+13</t>
-        </is>
-      </c>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr"/>
       <c r="S28" t="inlineStr"/>
-      <c r="T28" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 7 yrs Fixed-11/10/2024 </t>
-        </is>
-      </c>
-      <c r="U28" t="inlineStr">
-        <is>
-          <t>4.13%</t>
-        </is>
-      </c>
+      <c r="T28" t="inlineStr"/>
+      <c r="U28" t="inlineStr"/>
       <c r="V28" t="inlineStr"/>
       <c r="W28" t="inlineStr">
         <is>
@@ -2254,11 +1794,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>201 West 81st Street Associates LP</t>
-        </is>
-      </c>
+      <c r="A29" t="inlineStr"/>
       <c r="B29" t="inlineStr">
         <is>
           <t>201 West 81st Street, New York, NY 10024</t>
@@ -2267,10 +1803,14 @@
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NY </t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr"/>
+          <t>201 West 81st Street Associates LP</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>4.13%</t>
+        </is>
+      </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
@@ -2285,32 +1825,16 @@
           <t>11/10/2029</t>
         </is>
       </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>5,750,000</t>
-        </is>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>9.40412E+13</t>
-        </is>
-      </c>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr"/>
       <c r="S29" t="inlineStr"/>
-      <c r="T29" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 7 yrs Fixed-11/10/2024 </t>
-        </is>
-      </c>
-      <c r="U29" t="inlineStr">
-        <is>
-          <t>4.13%</t>
-        </is>
-      </c>
+      <c r="T29" t="inlineStr"/>
+      <c r="U29" t="inlineStr"/>
       <c r="V29" t="inlineStr"/>
       <c r="W29" t="inlineStr">
         <is>
@@ -2319,11 +1843,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>321 East 69th Street LLC</t>
-        </is>
-      </c>
+      <c r="A30" t="inlineStr"/>
       <c r="B30" t="inlineStr">
         <is>
           <t>321 East 69th Street, New York, NY 10021</t>
@@ -2332,10 +1852,14 @@
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NY </t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr"/>
+          <t>321 East 69th Street LLC</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>3.75%</t>
+        </is>
+      </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
@@ -2350,41 +1874,21 @@
           <t>4/1/2047</t>
         </is>
       </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>6,880,000</t>
-        </is>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>780100253</t>
-        </is>
-      </c>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr"/>
       <c r="S30" t="inlineStr"/>
-      <c r="T30" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Fixed </t>
-        </is>
-      </c>
-      <c r="U30" t="inlineStr">
-        <is>
-          <t>3.75%</t>
-        </is>
-      </c>
+      <c r="T30" t="inlineStr"/>
+      <c r="U30" t="inlineStr"/>
       <c r="V30" t="inlineStr"/>
       <c r="W30" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>151 East 82nd Street LLC</t>
-        </is>
-      </c>
+      <c r="A31" t="inlineStr"/>
       <c r="B31" t="inlineStr">
         <is>
           <t>151 East 82nd Street, New York, NY 10028</t>
@@ -2393,10 +1897,14 @@
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NY </t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr"/>
+          <t>151 East 82nd Street LLC</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>4.13%</t>
+        </is>
+      </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
@@ -2411,32 +1919,16 @@
           <t>11/10/2029</t>
         </is>
       </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>2,950,000</t>
-        </is>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>9.40412E+13</t>
-        </is>
-      </c>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr"/>
       <c r="S31" t="inlineStr"/>
-      <c r="T31" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 7 yrs Fixed-11/10/2024 </t>
-        </is>
-      </c>
-      <c r="U31" t="inlineStr">
-        <is>
-          <t>4.13%</t>
-        </is>
-      </c>
+      <c r="T31" t="inlineStr"/>
+      <c r="U31" t="inlineStr"/>
       <c r="V31" t="inlineStr"/>
       <c r="W31" t="inlineStr">
         <is>
@@ -2445,11 +1937,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>426-428 West 48th Street</t>
-        </is>
-      </c>
+      <c r="A32" t="inlineStr"/>
       <c r="B32" t="inlineStr">
         <is>
           <t>426-428 West 48th Street, New York, NY 10036</t>
@@ -2458,10 +1946,14 @@
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NY </t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr"/>
+          <t>426-428 West 48th Street</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>4.13%</t>
+        </is>
+      </c>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
@@ -2476,32 +1968,16 @@
           <t>11/10/2029</t>
         </is>
       </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>7,200,000</t>
-        </is>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>9.40409E+13</t>
-        </is>
-      </c>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr"/>
       <c r="S32" t="inlineStr"/>
-      <c r="T32" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 7 yrs Fixed-11/10/2024 </t>
-        </is>
-      </c>
-      <c r="U32" t="inlineStr">
-        <is>
-          <t>4.13%</t>
-        </is>
-      </c>
+      <c r="T32" t="inlineStr"/>
+      <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr"/>
       <c r="W32" t="inlineStr">
         <is>
@@ -2510,11 +1986,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>221 Second Ave LLC</t>
-        </is>
-      </c>
+      <c r="A33" t="inlineStr"/>
       <c r="B33" t="inlineStr">
         <is>
           <t>221 Second Avenue, New York, NY 10003</t>
@@ -2523,10 +1995,14 @@
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NY </t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr"/>
+          <t>221 Second Ave LLC</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>4.13%</t>
+        </is>
+      </c>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
@@ -2541,32 +2017,16 @@
           <t>11/10/2029</t>
         </is>
       </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>5,000,000</t>
-        </is>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>9.40412E+13</t>
-        </is>
-      </c>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr"/>
       <c r="S33" t="inlineStr"/>
-      <c r="T33" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 7 yrs Fixed-11/10/2024 </t>
-        </is>
-      </c>
-      <c r="U33" t="inlineStr">
-        <is>
-          <t>4.13%</t>
-        </is>
-      </c>
+      <c r="T33" t="inlineStr"/>
+      <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr"/>
       <c r="W33" t="inlineStr">
         <is>
@@ -2575,11 +2035,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>223 East 59th Street LLC</t>
-        </is>
-      </c>
+      <c r="A34" t="inlineStr"/>
       <c r="B34" t="inlineStr">
         <is>
           <t>223 East 59th Street, New York, NY 10022</t>
@@ -2588,10 +2044,14 @@
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> NY </t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr"/>
+          <t>223 East 59th Street LLC</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>4.50%</t>
+        </is>
+      </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
@@ -2606,32 +2066,16 @@
           <t>9/10/2025</t>
         </is>
       </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>4,000,000</t>
-        </is>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>9.405E+13</t>
-        </is>
-      </c>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr"/>
       <c r="S34" t="inlineStr"/>
-      <c r="T34" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 7 yrs Fixed-08/10/2025 </t>
-        </is>
-      </c>
-      <c r="U34" t="inlineStr">
-        <is>
-          <t>4.50%</t>
-        </is>
-      </c>
+      <c r="T34" t="inlineStr"/>
+      <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr"/>
       <c r="W34" t="inlineStr">
         <is>

--- a/ExtractSREO/Standardized-2021 12 14_MWest_Debt Schedule.xlsx
+++ b/ExtractSREO/Standardized-2021 12 14_MWest_Debt Schedule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W35"/>
+  <dimension ref="A1:W34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1417,11 +1417,7 @@
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>9/9/2019</t>
-        </is>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
           <t xml:space="preserve"> Invesco CMI Investments, L.P. </t>
@@ -2162,7 +2158,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>9.40409E+13</t>
+          <t>9.40E+13</t>
         </is>
       </c>
       <c r="N27" t="inlineStr"/>
@@ -2227,7 +2223,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>9.40412E+13</t>
+          <t>9.40E+13</t>
         </is>
       </c>
       <c r="N28" t="inlineStr"/>
@@ -2292,7 +2288,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>9.40412E+13</t>
+          <t>9.40E+13</t>
         </is>
       </c>
       <c r="N29" t="inlineStr"/>
@@ -2418,7 +2414,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>9.40412E+13</t>
+          <t>9.40E+13</t>
         </is>
       </c>
       <c r="N31" t="inlineStr"/>
@@ -2483,7 +2479,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>9.40409E+13</t>
+          <t>9.40E+13</t>
         </is>
       </c>
       <c r="N32" t="inlineStr"/>
@@ -2548,7 +2544,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>9.40412E+13</t>
+          <t>9.40E+13</t>
         </is>
       </c>
       <c r="N33" t="inlineStr"/>
@@ -2613,7 +2609,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>9.405E+13</t>
+          <t>9.41E+13</t>
         </is>
       </c>
       <c r="N34" t="inlineStr"/>
@@ -2639,35 +2635,6 @@
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr"/>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>TOTAL</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr"/>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="inlineStr"/>
-      <c r="T35" t="inlineStr"/>
-      <c r="U35" t="inlineStr"/>
-      <c r="V35" t="inlineStr"/>
-      <c r="W35" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
